--- a/סיכום והשוואה.xlsx
+++ b/סיכום והשוואה.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadas\Desktop\GitHub\project_remote_sensing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadas\Desktop\GitHub\finally_project_remote_sensing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC46B0D-23FF-4B96-9160-0C2092D662BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14344D9-0556-44CE-B6C9-F9A24420FA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56D7753B-A423-4720-88C6-6CBD31892206}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>tree(4-11)</t>
   </si>
@@ -96,13 +96,25 @@
   </si>
   <si>
     <t>tree(3-17)</t>
+  </si>
+  <si>
+    <t>Percentage of zeros in y_square:</t>
+  </si>
+  <si>
+    <t>Number of zeros in y_square:</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +123,13 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +160,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -156,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -170,10 +193,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,8 +212,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFE1FF"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFE1FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCCCFF"/>
     </mruColors>
@@ -516,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A183F53A-9509-44F0-93FE-2DE6D093B75D}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -536,217 +566,315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1086</v>
-      </c>
-      <c r="C3" s="1">
-        <v>387</v>
-      </c>
-      <c r="D3" s="1">
-        <v>884</v>
-      </c>
-      <c r="E3" s="1">
-        <v>357</v>
-      </c>
-      <c r="F3" s="1">
-        <v>185</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2141</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1526</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1086</v>
+      </c>
+      <c r="C4" s="1">
+        <v>387</v>
+      </c>
+      <c r="D4" s="1">
+        <v>884</v>
+      </c>
+      <c r="E4" s="1">
+        <v>357</v>
+      </c>
+      <c r="F4" s="1">
+        <v>185</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2141</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1526</v>
+      </c>
+      <c r="J4" s="5">
+        <f>AVERAGE(B5:I5)</f>
+        <v>4.0941275000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>4.1428000000000003E-3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>1.4763000000000001E-3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>3.3722000000000001E-3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>1.3618E-3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>7.0571999999999996E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>8.1673000000000006E-3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <v>7.7057000000000002E-3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I5" s="2">
         <v>5.8212000000000003E-3</v>
       </c>
-      <c r="J4" s="6">
-        <f>AVERAGE(B4:I4)</f>
-        <v>4.0941275000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>110</v>
-      </c>
-      <c r="C9" s="1">
-        <v>514</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1123</v>
-      </c>
-      <c r="E9" s="1">
-        <v>244</v>
-      </c>
-      <c r="F9" s="1">
-        <v>177</v>
-      </c>
-      <c r="G9" s="1">
-        <v>214</v>
-      </c>
-      <c r="H9" s="1">
-        <v>150</v>
-      </c>
-      <c r="I9" s="1">
-        <v>956</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1">
+        <v>514</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1123</v>
+      </c>
+      <c r="E10" s="1">
+        <v>244</v>
+      </c>
+      <c r="F10" s="1">
+        <v>177</v>
+      </c>
+      <c r="G10" s="1">
+        <v>214</v>
+      </c>
+      <c r="H10" s="1">
+        <v>150</v>
+      </c>
+      <c r="I10" s="1">
+        <v>956</v>
+      </c>
+      <c r="J10" s="5">
+        <f>AVERAGE(B11:I11)</f>
+        <v>1.66322E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>4.1962E-4</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>1.9608E-3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>4.2839000000000002E-3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>9.3079000000000002E-4</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>6.7520000000000004E-4</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>8.1634999999999997E-4</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>5.7220000000000003E-4</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I11" s="2">
         <v>3.6468999999999998E-3</v>
       </c>
-      <c r="J10" s="6">
-        <f>AVERAGE(B10:I10)</f>
-        <v>1.66322E-3</v>
-      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>669</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.552E-3</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A7:I7"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/סיכום והשוואה.xlsx
+++ b/סיכום והשוואה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadas\Desktop\GitHub\finally_project_remote_sensing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14344D9-0556-44CE-B6C9-F9A24420FA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C46EF0-0688-4852-A69A-A10070856919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56D7753B-A423-4720-88C6-6CBD31892206}"/>
   </bookViews>
@@ -194,16 +194,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -566,29 +566,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -683,17 +683,17 @@
       <c r="B6" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -785,32 +785,32 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
@@ -837,11 +837,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>669</v>
+        <v>1080</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -856,7 +856,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>2.552E-3</v>
+        <v>4.1199000000000001E-3</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>

--- a/סיכום והשוואה.xlsx
+++ b/סיכום והשוואה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadas\Desktop\GitHub\finally_project_remote_sensing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C46EF0-0688-4852-A69A-A10070856919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E8638-13B2-4F51-90D5-841F64435EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56D7753B-A423-4720-88C6-6CBD31892206}"/>
   </bookViews>

--- a/סיכום והשוואה.xlsx
+++ b/סיכום והשוואה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadas\Desktop\GitHub\finally_project_remote_sensing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E8638-13B2-4F51-90D5-841F64435EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3451F75-7A9C-4032-A399-276E13AF1EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56D7753B-A423-4720-88C6-6CBD31892206}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>tree(4-11)</t>
   </si>
@@ -179,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -202,6 +202,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A183F53A-9509-44F0-93FE-2DE6D093B75D}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -645,10 +648,6 @@
       <c r="I4" s="1">
         <v>1526</v>
       </c>
-      <c r="J4" s="5">
-        <f>AVERAGE(B5:I5)</f>
-        <v>4.0941275000000001E-3</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -678,110 +677,114 @@
       <c r="I5" s="2">
         <v>5.8212000000000003E-3</v>
       </c>
+      <c r="J5" s="5">
+        <f>AVERAGE(B5:I5)</f>
+        <v>4.0941275000000001E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>19</v>
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>110</v>
+      </c>
+      <c r="C9" s="1">
+        <v>514</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1123</v>
+      </c>
+      <c r="E9" s="1">
+        <v>244</v>
+      </c>
+      <c r="F9" s="1">
+        <v>177</v>
+      </c>
+      <c r="G9" s="1">
+        <v>214</v>
+      </c>
+      <c r="H9" s="1">
+        <v>150</v>
+      </c>
+      <c r="I9" s="1">
+        <v>956</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>110</v>
-      </c>
-      <c r="C10" s="1">
-        <v>514</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1123</v>
-      </c>
-      <c r="E10" s="1">
-        <v>244</v>
-      </c>
-      <c r="F10" s="1">
-        <v>177</v>
-      </c>
-      <c r="G10" s="1">
-        <v>214</v>
-      </c>
-      <c r="H10" s="1">
-        <v>150</v>
-      </c>
-      <c r="I10" s="1">
-        <v>956</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.1962E-4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.9608E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.2839000000000002E-3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.3079000000000002E-4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6.7520000000000004E-4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8.1634999999999997E-4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.7220000000000003E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.6468999999999998E-3</v>
       </c>
       <c r="J10" s="5">
-        <f>AVERAGE(B11:I11)</f>
+        <f>AVERAGE(B10:I10)</f>
         <v>1.66322E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4.1962E-4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.9608E-3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4.2839000000000002E-3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>9.3079000000000002E-4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6.7520000000000004E-4</v>
-      </c>
-      <c r="G11" s="2">
-        <v>8.1634999999999997E-4</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5.7220000000000003E-4</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3.6468999999999998E-3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -817,24 +820,12 @@
       <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -864,12 +855,78 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="A7:I7"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A8:I8"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B13:I13"/>

--- a/סיכום והשוואה.xlsx
+++ b/סיכום והשוואה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadas\Desktop\GitHub\finally_project_remote_sensing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3451F75-7A9C-4032-A399-276E13AF1EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F9F0FE-FF35-451D-8F6F-2A313FDDD385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56D7753B-A423-4720-88C6-6CBD31892206}"/>
   </bookViews>
@@ -201,10 +201,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -215,8 +215,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFE1FF"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCCCFF"/>
     </mruColors>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A183F53A-9509-44F0-93FE-2DE6D093B75D}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -569,16 +569,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -788,16 +788,16 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -832,9 +832,11 @@
         <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>1080</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>3271</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1473</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -842,32 +844,38 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>4.1199000000000001E-3</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>1.2478E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5.6189999999999999E-3</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="5">
+        <f>AVERAGE(B17:C17)</f>
+        <v>9.0484999999999993E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>11</v>
       </c>
@@ -880,7 +888,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -895,7 +903,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -903,12 +911,16 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1">
+        <v>824</v>
+      </c>
+      <c r="G21" s="1">
+        <v>954</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -916,20 +928,28 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2">
+        <v>3.1432999999999999E-3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3.6392E-3</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
+      <c r="J22" s="5">
+        <f>AVERAGE(F22:G22)</f>
+        <v>3.3912500000000002E-3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B13:I13"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A14:I14"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
